--- a/storage/files/DTRTemplates/dtrsummary.xlsx
+++ b/storage/files/DTRTemplates/dtrsummary.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hpo-hris\storage\files\DTRTemplates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19440" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,21 +440,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="6" customWidth="1"/>
     <col min="2" max="4" width="13.7109375" style="6" customWidth="1"/>
@@ -470,7 +465,7 @@
     <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,21 +506,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="10" customWidth="1"/>
-    <col min="3" max="6" width="25.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="10" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>

--- a/storage/files/DTRTemplates/dtrsummary.xlsx
+++ b/storage/files/DTRTemplates/dtrsummary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="19440" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19440" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,15 +80,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -96,22 +87,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -145,28 +153,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,53 +458,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" customWidth="1"/>
-    <col min="7" max="10" width="13.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
+    <col min="7" max="10" width="13.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -509,40 +517,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>